--- a/data_year/zb/价格指数/各种价格指数.xlsx
+++ b/data_year/zb/价格指数/各种价格指数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,587 +473,359 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.90000000000001</v>
+        <v>103.6</v>
       </c>
       <c r="C2" t="n">
-        <v>98.5</v>
+        <v>103.1</v>
       </c>
       <c r="D2" t="n">
-        <v>101.1</v>
+        <v>103.6</v>
       </c>
       <c r="E2" t="n">
-        <v>100.8</v>
+        <v>103.2</v>
       </c>
       <c r="F2" t="n">
-        <v>100.4</v>
+        <v>103.3</v>
       </c>
       <c r="G2" t="n">
-        <v>102.8</v>
+        <v>105.5</v>
       </c>
       <c r="H2" t="n">
-        <v>105.1</v>
+        <v>109.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.8</v>
+        <v>105.8</v>
       </c>
       <c r="C3" t="n">
-        <v>99.2</v>
+        <v>104.9</v>
       </c>
       <c r="D3" t="n">
-        <v>100.4</v>
+        <v>106.6</v>
       </c>
       <c r="E3" t="n">
-        <v>100.7</v>
+        <v>105.3</v>
       </c>
       <c r="F3" t="n">
-        <v>100.7</v>
+        <v>105.4</v>
       </c>
       <c r="G3" t="n">
-        <v>98.7</v>
+        <v>106</v>
       </c>
       <c r="H3" t="n">
-        <v>99.8</v>
+        <v>109.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59999999999999</v>
+        <v>102.5</v>
       </c>
       <c r="C4" t="n">
-        <v>98.7</v>
+        <v>102</v>
       </c>
       <c r="D4" t="n">
-        <v>100.2</v>
+        <v>101.12</v>
       </c>
       <c r="E4" t="n">
-        <v>99</v>
+        <v>102.7</v>
       </c>
       <c r="F4" t="n">
-        <v>99.2</v>
+        <v>102.6</v>
       </c>
       <c r="G4" t="n">
-        <v>97.8</v>
+        <v>98.3</v>
       </c>
       <c r="H4" t="n">
-        <v>97.7</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>101.6</v>
+        <v>102.8</v>
       </c>
       <c r="C5" t="n">
-        <v>99.90000000000001</v>
+        <v>101.4</v>
       </c>
       <c r="D5" t="n">
-        <v>102.2</v>
+        <v>100.25</v>
       </c>
       <c r="E5" t="n">
-        <v>100.9</v>
+        <v>102.6</v>
       </c>
       <c r="F5" t="n">
-        <v>101.2</v>
+        <v>102.6</v>
       </c>
       <c r="G5" t="n">
-        <v>102.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>104.8</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>104.8</v>
+        <v>101.8</v>
       </c>
       <c r="C6" t="n">
-        <v>102.8</v>
+        <v>101</v>
       </c>
       <c r="D6" t="n">
-        <v>105.6</v>
+        <v>100.51</v>
       </c>
       <c r="E6" t="n">
-        <v>103.3</v>
+        <v>102.1</v>
       </c>
       <c r="F6" t="n">
-        <v>103.9</v>
+        <v>102</v>
       </c>
       <c r="G6" t="n">
-        <v>106.1</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>111.4</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>102.2</v>
+        <v>101.3</v>
       </c>
       <c r="C7" t="n">
-        <v>100.8</v>
+        <v>100.1</v>
       </c>
       <c r="D7" t="n">
-        <v>101.6</v>
+        <v>98.18000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="F7" t="n">
-        <v>101.8</v>
+        <v>101.4</v>
       </c>
       <c r="G7" t="n">
-        <v>104.9</v>
+        <v>94.8</v>
       </c>
       <c r="H7" t="n">
-        <v>108.3</v>
+        <v>93.90000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>101.5</v>
+        <v>101.9</v>
       </c>
       <c r="C8" t="n">
-        <v>101</v>
+        <v>100.7</v>
       </c>
       <c r="D8" t="n">
-        <v>101.5</v>
+        <v>99.43000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>101.5</v>
+        <v>102.1</v>
       </c>
       <c r="F8" t="n">
-        <v>101.5</v>
+        <v>102</v>
       </c>
       <c r="G8" t="n">
-        <v>103</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>105.4</v>
+        <v>101.3</v>
       </c>
       <c r="C9" t="n">
-        <v>103.8</v>
+        <v>101.1</v>
       </c>
       <c r="D9" t="n">
-        <v>103.91</v>
+        <v>105.78</v>
       </c>
       <c r="E9" t="n">
-        <v>104.5</v>
+        <v>101.7</v>
       </c>
       <c r="F9" t="n">
-        <v>104.8</v>
+        <v>101.6</v>
       </c>
       <c r="G9" t="n">
-        <v>103.1</v>
+        <v>106.3</v>
       </c>
       <c r="H9" t="n">
-        <v>104.4</v>
+        <v>108.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>106.5</v>
+        <v>102.1</v>
       </c>
       <c r="C10" t="n">
-        <v>105.9</v>
+        <v>101.9</v>
       </c>
       <c r="D10" t="n">
-        <v>108.94</v>
+        <v>105.37</v>
       </c>
       <c r="E10" t="n">
-        <v>105.6</v>
+        <v>102.1</v>
       </c>
       <c r="F10" t="n">
-        <v>105.9</v>
+        <v>102.1</v>
       </c>
       <c r="G10" t="n">
-        <v>106.9</v>
+        <v>103.5</v>
       </c>
       <c r="H10" t="n">
-        <v>110.5</v>
+        <v>104.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>99.7</v>
+        <v>103.2</v>
       </c>
       <c r="C11" t="n">
-        <v>98.8</v>
+        <v>102</v>
       </c>
       <c r="D11" t="n">
-        <v>97.59999999999999</v>
+        <v>102.5601</v>
       </c>
       <c r="E11" t="n">
-        <v>99.09999999999999</v>
+        <v>102.8</v>
       </c>
       <c r="F11" t="n">
-        <v>99.3</v>
+        <v>102.9</v>
       </c>
       <c r="G11" t="n">
-        <v>94.59999999999999</v>
+        <v>99.6793</v>
       </c>
       <c r="H11" t="n">
-        <v>92.09999999999999</v>
+        <v>99.2807</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>103.6</v>
+        <v>103</v>
       </c>
       <c r="C12" t="n">
-        <v>103.1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>103.6</v>
-      </c>
+        <v>101.4</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>103.2</v>
+        <v>102.3</v>
       </c>
       <c r="F12" t="n">
-        <v>103.3</v>
+        <v>102.5</v>
       </c>
       <c r="G12" t="n">
-        <v>105.5</v>
+        <v>98.2</v>
       </c>
       <c r="H12" t="n">
-        <v>109.58</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.8</v>
+        <v>100.7</v>
       </c>
       <c r="C13" t="n">
-        <v>104.9</v>
-      </c>
-      <c r="D13" t="n">
-        <v>106.6</v>
-      </c>
+        <v>101.6</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>105.3</v>
+        <v>101</v>
       </c>
       <c r="F13" t="n">
-        <v>105.4</v>
+        <v>100.9</v>
       </c>
       <c r="G13" t="n">
-        <v>106</v>
+        <v>108.1</v>
       </c>
       <c r="H13" t="n">
-        <v>109.1</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>102.5</v>
+        <v>102</v>
       </c>
       <c r="C14" t="n">
+        <v>102.7</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
         <v>102</v>
       </c>
-      <c r="D14" t="n">
-        <v>101.12</v>
-      </c>
-      <c r="E14" t="n">
-        <v>102.7</v>
-      </c>
       <c r="F14" t="n">
-        <v>102.6</v>
+        <v>102</v>
       </c>
       <c r="G14" t="n">
-        <v>98.282</v>
+        <v>104.1254</v>
       </c>
       <c r="H14" t="n">
-        <v>98.15479999999999</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>102.8</v>
-      </c>
-      <c r="C15" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>100.25</v>
-      </c>
-      <c r="E15" t="n">
-        <v>102.6</v>
-      </c>
-      <c r="F15" t="n">
-        <v>102.6</v>
-      </c>
-      <c r="G15" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>97.9918</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>101.8</v>
-      </c>
-      <c r="C16" t="n">
-        <v>101</v>
-      </c>
-      <c r="D16" t="n">
-        <v>100.51</v>
-      </c>
-      <c r="E16" t="n">
-        <v>102.1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>102</v>
-      </c>
-      <c r="G16" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="H16" t="n">
-        <v>97.8325</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>98.18000000000001</v>
-      </c>
-      <c r="E17" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="F17" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="G17" t="n">
-        <v>94.8</v>
-      </c>
-      <c r="H17" t="n">
-        <v>93.89100000000001</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>101.9</v>
-      </c>
-      <c r="C18" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="D18" t="n">
-        <v>99.43000000000001</v>
-      </c>
-      <c r="E18" t="n">
-        <v>102.1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>102</v>
-      </c>
-      <c r="G18" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>98.0301</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>105.78</v>
-      </c>
-      <c r="E19" t="n">
-        <v>101.7</v>
-      </c>
-      <c r="F19" t="n">
-        <v>101.6</v>
-      </c>
-      <c r="G19" t="n">
-        <v>106.3</v>
-      </c>
-      <c r="H19" t="n">
-        <v>108.0697</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>102.1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>101.9</v>
-      </c>
-      <c r="D20" t="n">
-        <v>105.37</v>
-      </c>
-      <c r="E20" t="n">
-        <v>102.1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>102.1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>103.5</v>
-      </c>
-      <c r="H20" t="n">
-        <v>104.1183</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>103.2</v>
-      </c>
-      <c r="C21" t="n">
-        <v>102</v>
-      </c>
-      <c r="D21" t="n">
-        <v>102.5601</v>
-      </c>
-      <c r="E21" t="n">
-        <v>102.8</v>
-      </c>
-      <c r="F21" t="n">
-        <v>102.9</v>
-      </c>
-      <c r="G21" t="n">
-        <v>99.6793</v>
-      </c>
-      <c r="H21" t="n">
-        <v>99.2807</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>103</v>
-      </c>
-      <c r="C22" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>102.3</v>
-      </c>
-      <c r="F22" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="G22" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="H22" t="n">
-        <v>97.68689999999999</v>
+        <v>106.1233</v>
       </c>
     </row>
   </sheetData>
